--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8634" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9773" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1090,435 +1090,590 @@
     <t>Bundle.entry:encounter.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:observationInjuryDateTime</t>
-  </si>
-  <si>
-    <t>observationInjuryDateTime</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.resource</t>
-  </si>
-  <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime}
+    <t>Bundle.entry:allergyIntolerance</t>
+  </si>
+  <si>
+    <t>allergyIntolerance</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.resource</t>
+  </si>
+  <si>
+    <t>Allergy
+IntoleranceAdverse Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllergyIntolerance {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-allergy-intolerance}
 </t>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>OBX</t>
+    <t>Allergy or Intolerance (generally: Risk of adverse reaction to a substance)</t>
+  </si>
+  <si>
+    <t>Risk of harmful or undesirable, physiological response which is unique to an individual and associated with exposure to a substance.</t>
+  </si>
+  <si>
+    <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
-    <t>Bundle.entry:observationInjuryDateTime.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationInjuryDateTime.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident</t>
-  </si>
-  <si>
-    <t>observationTransportAccident</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-accident}
+    <t>Bundle.entry:allergyIntolerance.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:allergyIntolerance.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement</t>
+  </si>
+  <si>
+    <t>medicationStatement</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationStatement {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-medication-statement}
 </t>
   </si>
   <si>
-    <t>Bundle.entry:observationTransportAccident.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationTransportAccident.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport</t>
-  </si>
-  <si>
-    <t>observationModeOfTransport</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport}
+    <t>Record of medication being taken by a patient</t>
+  </si>
+  <si>
+    <t>A record of a medication that is being consumed by a patient.   A MedicationStatement may indicate that the patient may be taking the medication now or has taken the medication in the past or will be taking the medication in the future.  The source of this information can be the patient, significant other (such as a family member or spouse), or a clinician.  A common scenario where this information is captured is during the history taking process during a patient visit or stay.   The medication information may come from sources such as the patient's memory, from a prescription bottle,  or from a list of medications the patient, clinician or other party maintains. 
+The primary difference between a medication statement and a medication administration is that the medication administration has complete administration information and is based on actual administration information from the person who administered the medication.  A medication statement is often, if not always, less specific.  There is no required date/time when the medication was administered, in fact we only know that a source has reported the patient is taking this medication, where details such as time, quantity, or rate or even medication product may be incomplete or missing or less precise.  As stated earlier, the medication statement information may come from the patient's memory, from a prescription bottle or from a list of medications the patient, clinician or other party maintains.  Medication administration is more formal and is not missing detailed information.</t>
+  </si>
+  <si>
+    <t>When interpreting a medicationStatement, the value of the status and NotTaken needed to be considered:+MedicationStatement.status + MedicationStatement.wasNotTaken+Status=Active + NotTaken=T = Not currently taking+Status=Completed + NotTaken=T = Not taken in the past+Status=Intended + NotTaken=T = No intention of taking+Status=Active + NotTaken=F = Taking, but not as prescribed+Status=Active + NotTaken=F = Taking+Status=Intended +NotTaken= F = Will be taking (not started)+Status=Completed + NotTaken=F = Taken in past+Status=In Error + NotTaken=N/A = In Error.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:medicationStatement.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-task}
 </t>
   </si>
   <si>
-    <t>Bundle.entry:observationModeOfTransport.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationModeOfTransport.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome</t>
-  </si>
-  <si>
-    <t>observationOutcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-outcome-release}
+    <t>A task to be performed</t>
+  </si>
+  <si>
+    <t>A task to be performed.</t>
+  </si>
+  <si>
+    <t>ControlAct[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:task.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-incident-location-incident}
 </t>
   </si>
   <si>
-    <t>Bundle.entry:observationOutcome.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:observationOutcome.response.outcome</t>
+    <t>Details and position information for a physical place</t>
+  </si>
+  <si>
+    <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
+  </si>
+  <si>
+    <t>.Role[classCode=SDLC]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:location.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference</t>
+  </si>
+  <si>
+    <t>documentReference</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentReference {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-document-reference}
+</t>
+  </si>
+  <si>
+    <t>A reference to a document</t>
+  </si>
+  <si>
+    <t>A reference to a document of any kind for any purpose. Provides metadata about the document so that the document can be discovered and managed. The scope of a document is any seralized object with a mime-type, so includes formal patient centric documents (CDA), cliical notes, scanned paper, and non-patient specific documents like policy text.</t>
+  </si>
+  <si>
+    <t>Usually, this is used for documents other than those defined by FHIR.</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN"]</t>
+  </si>
+  <si>
+    <t>when describing a CDA</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:documentReference.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1850,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN241"/>
+  <dimension ref="A1:AN273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1859,9 +2014,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.01171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.61328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.9375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1869,7 +2024,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.35546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1895,7 +2050,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="38.28515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
@@ -14610,7 +14765,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>78</v>
@@ -15376,10 +15531,10 @@
         <v>78</v>
       </c>
       <c r="AK119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>78</v>
@@ -15390,7 +15545,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>197</v>
@@ -15502,7 +15657,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>201</v>
@@ -15614,7 +15769,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>202</v>
@@ -15728,7 +15883,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>203</v>
@@ -15844,7 +15999,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>204</v>
@@ -15958,7 +16113,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>210</v>
@@ -16072,7 +16227,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>215</v>
@@ -16184,7 +16339,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>219</v>
@@ -16296,7 +16451,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>220</v>
@@ -16410,7 +16565,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>221</v>
@@ -16526,7 +16681,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>222</v>
@@ -16638,7 +16793,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>227</v>
@@ -16752,7 +16907,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>231</v>
@@ -16864,7 +17019,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>234</v>
@@ -16976,7 +17131,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>236</v>
@@ -17088,7 +17243,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>239</v>
@@ -17200,7 +17355,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>242</v>
@@ -17312,7 +17467,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>246</v>
@@ -17424,7 +17579,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>247</v>
@@ -17538,7 +17693,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>248</v>
@@ -17654,7 +17809,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>249</v>
@@ -17766,7 +17921,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>252</v>
@@ -17878,7 +18033,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>255</v>
@@ -17992,7 +18147,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>259</v>
@@ -18106,7 +18261,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>263</v>
@@ -18220,13 +18375,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>78</v>
@@ -18236,7 +18391,7 @@
         <v>79</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>78</v>
@@ -18334,7 +18489,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>183</v>
@@ -18446,7 +18601,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>184</v>
@@ -18560,7 +18715,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>185</v>
@@ -18676,7 +18831,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>186</v>
@@ -18788,7 +18943,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>189</v>
@@ -18902,14 +19057,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -18928,16 +19083,16 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L151" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="M151" t="s" s="2">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -19002,10 +19157,10 @@
         <v>78</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>78</v>
@@ -19016,7 +19171,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>197</v>
@@ -19128,7 +19283,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>201</v>
@@ -19240,7 +19395,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>202</v>
@@ -19354,7 +19509,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>203</v>
@@ -19470,7 +19625,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>204</v>
@@ -19584,7 +19739,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>210</v>
@@ -19698,7 +19853,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>215</v>
@@ -19810,7 +19965,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>219</v>
@@ -19922,7 +20077,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>220</v>
@@ -20036,7 +20191,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>221</v>
@@ -20152,7 +20307,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>222</v>
@@ -20264,7 +20419,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>227</v>
@@ -20378,7 +20533,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>231</v>
@@ -20490,7 +20645,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>234</v>
@@ -20602,7 +20757,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>236</v>
@@ -20714,7 +20869,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>239</v>
@@ -20826,7 +20981,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>242</v>
@@ -20938,7 +21093,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>246</v>
@@ -21050,7 +21205,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>247</v>
@@ -21164,7 +21319,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>248</v>
@@ -21280,7 +21435,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>249</v>
@@ -21392,7 +21547,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>252</v>
@@ -21504,7 +21659,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>255</v>
@@ -21618,7 +21773,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>259</v>
@@ -21732,7 +21887,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>263</v>
@@ -21846,13 +22001,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>78</v>
@@ -21862,7 +22017,7 @@
         <v>79</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>78</v>
@@ -21960,7 +22115,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>183</v>
@@ -22072,7 +22227,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>184</v>
@@ -22186,7 +22341,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>185</v>
@@ -22302,7 +22457,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>186</v>
@@ -22414,7 +22569,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>189</v>
@@ -22528,14 +22683,14 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -22554,17 +22709,15 @@
         <v>78</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>78</v>
@@ -22628,10 +22781,10 @@
         <v>78</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>78</v>
@@ -22642,7 +22795,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>197</v>
@@ -22754,7 +22907,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>201</v>
@@ -22866,7 +23019,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>202</v>
@@ -22980,7 +23133,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>203</v>
@@ -23096,7 +23249,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>204</v>
@@ -23210,7 +23363,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>210</v>
@@ -23324,7 +23477,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>215</v>
@@ -23436,7 +23589,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>219</v>
@@ -23548,7 +23701,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>220</v>
@@ -23662,7 +23815,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>221</v>
@@ -23778,7 +23931,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>222</v>
@@ -23890,7 +24043,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>227</v>
@@ -24004,7 +24157,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>231</v>
@@ -24116,7 +24269,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>234</v>
@@ -24228,7 +24381,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>236</v>
@@ -24340,7 +24493,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>239</v>
@@ -24452,7 +24605,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>242</v>
@@ -24564,7 +24717,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>246</v>
@@ -24676,7 +24829,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>247</v>
@@ -24790,7 +24943,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>248</v>
@@ -24906,7 +25059,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>249</v>
@@ -25018,7 +25171,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>252</v>
@@ -25130,7 +25283,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>255</v>
@@ -25244,7 +25397,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>259</v>
@@ -25358,7 +25511,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>263</v>
@@ -25472,13 +25625,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>176</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>78</v>
@@ -25488,7 +25641,7 @@
         <v>79</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>78</v>
@@ -25586,7 +25739,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>183</v>
@@ -25698,7 +25851,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>184</v>
@@ -25812,7 +25965,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>185</v>
@@ -25928,7 +26081,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>186</v>
@@ -26040,7 +26193,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>189</v>
@@ -26154,14 +26307,14 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -26180,17 +26333,15 @@
         <v>78</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>354</v>
+        <v>467</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>78</v>
@@ -26254,10 +26405,10 @@
         <v>78</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>358</v>
+        <v>469</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>78</v>
@@ -26268,7 +26419,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>197</v>
@@ -26380,7 +26531,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>201</v>
@@ -26492,7 +26643,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>202</v>
@@ -26606,7 +26757,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>203</v>
@@ -26722,7 +26873,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>204</v>
@@ -26836,7 +26987,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>210</v>
@@ -26950,7 +27101,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>215</v>
@@ -27062,7 +27213,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>219</v>
@@ -27174,7 +27325,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>220</v>
@@ -27288,7 +27439,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>221</v>
@@ -27404,7 +27555,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>222</v>
@@ -27516,7 +27667,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>227</v>
@@ -27630,7 +27781,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>231</v>
@@ -27742,7 +27893,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>234</v>
@@ -27854,7 +28005,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>236</v>
@@ -27966,7 +28117,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>239</v>
@@ -28078,7 +28229,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>242</v>
@@ -28190,7 +28341,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>246</v>
@@ -28302,7 +28453,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>247</v>
@@ -28416,7 +28567,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>248</v>
@@ -28532,7 +28683,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>249</v>
@@ -28644,7 +28795,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>252</v>
@@ -28756,7 +28907,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>255</v>
@@ -28870,7 +29021,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>259</v>
@@ -28984,7 +29135,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>263</v>
@@ -29098,12 +29249,14 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C241" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="D241" t="s" s="2">
         <v>78</v>
       </c>
@@ -29112,7 +29265,7 @@
         <v>79</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>78</v>
@@ -29124,20 +29277,16 @@
         <v>89</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>488</v>
+        <v>178</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>78</v>
       </c>
@@ -29185,30 +29334,3658 @@
         <v>78</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>486</v>
+        <v>176</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ241" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN241" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E242" s="2"/>
+      <c r="F242" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G242" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q242" s="2"/>
+      <c r="R242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL242" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN242" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G243" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O243" s="2"/>
+      <c r="P243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q243" s="2"/>
+      <c r="R243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL243" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN243" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G244" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O244" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q244" s="2"/>
+      <c r="R244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL244" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN244" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G245" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q245" s="2"/>
+      <c r="R245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN241" t="s" s="2">
+      <c r="AK245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN245" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G246" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q246" s="2"/>
+      <c r="R246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN246" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G247" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K247" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O247" s="2"/>
+      <c r="P247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q247" s="2"/>
+      <c r="R247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF247" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG247" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH247" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL247" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM247" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AN247" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G248" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J248" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K248" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q248" s="2"/>
+      <c r="R248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF248" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AG248" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH248" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI248" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AJ248" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN248" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G249" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K249" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q249" s="2"/>
+      <c r="R249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF249" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG249" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH249" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL249" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN249" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G250" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O250" s="2"/>
+      <c r="P250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q250" s="2"/>
+      <c r="R250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF250" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG250" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH250" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ250" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL250" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN250" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G251" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I251" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J251" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L251" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N251" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O251" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q251" s="2"/>
+      <c r="R251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF251" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG251" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH251" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ251" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL251" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN251" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G252" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J252" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K252" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L252" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M252" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N252" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O252" s="2"/>
+      <c r="P252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q252" s="2"/>
+      <c r="R252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X252" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y252" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z252" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF252" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG252" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH252" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ252" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM252" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN252" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C253" s="2"/>
+      <c r="D253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G253" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J253" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K253" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L253" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M253" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N253" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O253" s="2"/>
+      <c r="P253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q253" s="2"/>
+      <c r="R253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF253" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH253" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ253" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM253" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN253" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G254" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J254" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L254" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M254" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q254" s="2"/>
+      <c r="R254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF254" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH254" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI254" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ254" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN254" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G255" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L255" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+      <c r="P255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q255" s="2"/>
+      <c r="R255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF255" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH255" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL255" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN255" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K256" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M256" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N256" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O256" s="2"/>
+      <c r="P256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q256" s="2"/>
+      <c r="R256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF256" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH256" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ256" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL256" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM256" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN256" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G257" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I257" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J257" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K257" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M257" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N257" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O257" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q257" s="2"/>
+      <c r="R257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF257" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH257" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ257" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL257" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN257" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E258" s="2"/>
+      <c r="F258" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G258" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J258" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K258" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L258" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N258" s="2"/>
+      <c r="O258" s="2"/>
+      <c r="P258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q258" s="2"/>
+      <c r="R258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X258" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y258" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z258" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AA258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF258" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG258" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH258" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ258" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM258" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN258" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G259" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J259" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K259" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L259" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M259" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N259" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O259" s="2"/>
+      <c r="P259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q259" s="2"/>
+      <c r="R259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF259" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG259" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH259" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ259" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM259" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN259" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E260" s="2"/>
+      <c r="F260" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G260" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J260" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K260" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L260" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M260" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N260" s="2"/>
+      <c r="O260" s="2"/>
+      <c r="P260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q260" s="2"/>
+      <c r="R260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF260" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG260" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH260" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ260" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM260" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN260" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E261" s="2"/>
+      <c r="F261" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G261" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J261" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K261" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L261" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M261" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
+      <c r="P261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q261" s="2"/>
+      <c r="R261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF261" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG261" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH261" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ261" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM261" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN261" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G262" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J262" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K262" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L262" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M262" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N262" s="2"/>
+      <c r="O262" s="2"/>
+      <c r="P262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q262" s="2"/>
+      <c r="R262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF262" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG262" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH262" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ262" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM262" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN262" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G263" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J263" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K263" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L263" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M263" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N263" s="2"/>
+      <c r="O263" s="2"/>
+      <c r="P263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q263" s="2"/>
+      <c r="R263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF263" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG263" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH263" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ263" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN263" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E264" s="2"/>
+      <c r="F264" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G264" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J264" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K264" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L264" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M264" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N264" s="2"/>
+      <c r="O264" s="2"/>
+      <c r="P264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q264" s="2"/>
+      <c r="R264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF264" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG264" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH264" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI264" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ264" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN264" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G265" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K265" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L265" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N265" s="2"/>
+      <c r="O265" s="2"/>
+      <c r="P265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q265" s="2"/>
+      <c r="R265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF265" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG265" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH265" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL265" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN265" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G266" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K266" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N266" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O266" s="2"/>
+      <c r="P266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q266" s="2"/>
+      <c r="R266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF266" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG266" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH266" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ266" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL266" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM266" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN266" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E267" s="2"/>
+      <c r="F267" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G267" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I267" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J267" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K267" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L267" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M267" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O267" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q267" s="2"/>
+      <c r="R267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF267" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG267" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH267" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ267" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL267" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM267" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN267" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E268" s="2"/>
+      <c r="F268" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G268" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J268" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K268" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L268" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M268" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N268" s="2"/>
+      <c r="O268" s="2"/>
+      <c r="P268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q268" s="2"/>
+      <c r="R268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF268" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG268" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH268" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ268" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM268" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN268" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C269" s="2"/>
+      <c r="D269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E269" s="2"/>
+      <c r="F269" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G269" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J269" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M269" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N269" s="2"/>
+      <c r="O269" s="2"/>
+      <c r="P269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q269" s="2"/>
+      <c r="R269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF269" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG269" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH269" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ269" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM269" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN269" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E270" s="2"/>
+      <c r="F270" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G270" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J270" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K270" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L270" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M270" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N270" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O270" s="2"/>
+      <c r="P270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q270" s="2"/>
+      <c r="R270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF270" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG270" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH270" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ270" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM270" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN270" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E271" s="2"/>
+      <c r="F271" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G271" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J271" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K271" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L271" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M271" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N271" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O271" s="2"/>
+      <c r="P271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q271" s="2"/>
+      <c r="R271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF271" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG271" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH271" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ271" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM271" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN271" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G272" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J272" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K272" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L272" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M272" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N272" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q272" s="2"/>
+      <c r="R272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF272" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG272" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH272" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM272" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN272" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C273" s="2"/>
+      <c r="D273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="F273" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G273" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J273" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K273" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L273" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M273" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N273" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O273" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="P273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q273" s="2"/>
+      <c r="R273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF273" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG273" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH273" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ273" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM273" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN273" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-bundle-minimum.xlsx
+++ b/StructureDefinition-rs-bundle-minimum.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
